--- a/biology/Botanique/Madhuca_ridleyi/Madhuca_ridleyi.xlsx
+++ b/biology/Botanique/Madhuca_ridleyi/Madhuca_ridleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Madhuca ridleyi est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un grand arbre de canopée endémique à la Malaisie péninsulaire.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique aux forêts primaires et secondaire, sur sol calcaire, entre 150 et 400 mètres d'altitude dans les états de Perlis, Kedah, Perak, Kelantan et Pahang. il peut pousser aussi dans les zones temporairement inondées.
 </t>
@@ -568,7 +584,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce préservée dans des réserves forestières.
 </t>
